--- a/sounds/ConfigurationMenu.xlsx
+++ b/sounds/ConfigurationMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\sounds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6158B898-FC48-41CB-AE32-F2CE07E0FFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA79EEA-39AB-4818-A421-9D86E68A4927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="345" windowWidth="32760" windowHeight="16875" xr2:uid="{CCADFEE4-B0E1-4363-9617-1683960BED03}"/>
   </bookViews>
@@ -30,29 +30,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
   <si>
     <t>input</t>
   </si>
   <si>
-    <t>sound after input</t>
-  </si>
-  <si>
-    <t>inputs</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>powerOn</t>
   </si>
   <si>
     <t>mMenu</t>
   </si>
   <si>
-    <t>alternate sound after input</t>
-  </si>
-  <si>
     <t>lights</t>
   </si>
   <si>
@@ -63,12 +51,6 @@
   </si>
   <si>
     <t>&lt;&lt;&lt; Shooting Lights&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>This is the O &amp; F Science Fiction Rubber Band Gun version 1.0. Press any button plus trigger to configure</t>
-  </si>
-  <si>
-    <t>This is the F &amp; O Science Fiction Rubber Band Gun version 1.0. Press any button plus trigger to configure</t>
   </si>
   <si>
     <t>trigYellow</t>
@@ -224,9 +206,6 @@
     </r>
   </si>
   <si>
-    <t>StoreAddr</t>
-  </si>
-  <si>
     <t>"trigPlus";""</t>
   </si>
   <si>
@@ -336,13 +315,31 @@
   </si>
   <si>
     <t>eeSoundSave | mFUNC&gt;&gt;IDXlshift</t>
+  </si>
+  <si>
+    <t>This is the FOOF Science Fiction Rubber Band Gun version 1.0. Press any button plus trigger to configure</t>
+  </si>
+  <si>
+    <t>soundAfterInput</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>inputsFange</t>
+  </si>
+  <si>
+    <t>storeValMasks</t>
+  </si>
+  <si>
+    <t>StoreAddrMasks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,13 +363,6 @@
     </font>
     <font>
       <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -444,10 +434,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -455,14 +445,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -781,955 +768,851 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8DFC6-94F4-4A82-A874-2F16F2CF0145}">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="40.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>49</v>
+    <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
+      <c r="K2" t="s">
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
+        <v>89</v>
       </c>
       <c r="O2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
       <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
       </c>
       <c r="O3" t="s">
         <v>88</v>
       </c>
-      <c r="P3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="K8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L11" t="s">
         <v>77</v>
       </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" t="s">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="K13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="F7" t="s">
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="L8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" t="s">
+      <c r="C24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="L13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="J22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="J26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s">
-        <v>95</v>
-      </c>
-      <c r="I39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" t="s">
-        <v>19</v>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
-      </c>
-      <c r="H43" t="s">
-        <v>97</v>
-      </c>
-      <c r="J43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="R3:R50">
-    <sortCondition ref="R3:R50"/>
+  <sortState ref="Q3:Q50">
+    <sortCondition ref="Q3:Q50"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
